--- a/dados/Cardinalidade.xlsx
+++ b/dados/Cardinalidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheuscantarutti/Desktop/Pessoal/Udemy/cursoPyspark/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4ED6B0-02A3-A041-9169-5F6E05CC6C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DBDFA1-04CB-7A4C-BBF2-71B006492168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1540" windowWidth="38400" windowHeight="21100" xr2:uid="{E9EB2AEF-B018-B441-8403-8E2C2D76AB00}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{E9EB2AEF-B018-B441-8403-8E2C2D76AB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>cd_cliente</t>
   </si>
@@ -141,6 +141,54 @@
   </si>
   <si>
     <t>FK</t>
+  </si>
+  <si>
+    <t>status pedido</t>
+  </si>
+  <si>
+    <t>RELACIONAMENTOS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:N</t>
+  </si>
+  <si>
+    <t>N:N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>EVITAR</t>
+  </si>
+  <si>
+    <t>DESEJAR</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SUBSTATUS DE PAGO</t>
+  </si>
+  <si>
+    <t>CARTÃO ACEITO</t>
+  </si>
+  <si>
+    <t>CARTÃO RECUSADO</t>
+  </si>
+  <si>
+    <t>PAGAMENTO DÉBIDO</t>
+  </si>
+  <si>
+    <t>PAGAMENTO PARCELADO</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>QUANTIDADE DE PARCELAS</t>
   </si>
 </sst>
 </file>
@@ -148,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -209,12 +257,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -227,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +286,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,6 +710,82 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705338</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170310</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B3DBA4-2CCB-0749-99FA-8C2953B68642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12648223" y="5004127"/>
+          <a:ext cx="4406574" cy="808566"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Encontrar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> o relacionamento que está faltando e sugerir novos relacionamentos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -983,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A662F-E400-324C-9271-B2D7DA7211D0}">
-  <dimension ref="D3:M24"/>
+  <dimension ref="D3:S29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,11 +1119,13 @@
     <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1137,12 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1035,8 +1167,20 @@
       <c r="M5" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -1055,8 +1199,20 @@
       <c r="M6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E7" s="1">
         <v>2</v>
       </c>
@@ -1075,8 +1231,14 @@
       <c r="M7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E8" s="1">
         <v>3</v>
       </c>
@@ -1095,8 +1257,14 @@
       <c r="M8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E9" s="1">
         <v>4</v>
       </c>
@@ -1115,8 +1283,14 @@
       <c r="M9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E10" s="1">
         <v>5</v>
       </c>
@@ -1136,7 +1310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E11" s="1">
         <v>6</v>
       </c>
@@ -1150,7 +1324,7 @@
         <v>35900</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E12" s="1">
         <v>7</v>
       </c>
@@ -1164,7 +1338,7 @@
         <v>34497</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E13" s="1">
         <v>8</v>
       </c>
@@ -1178,7 +1352,7 @@
         <v>34420</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E14" s="1">
         <v>9</v>
       </c>
@@ -1192,7 +1366,7 @@
         <v>32541</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E15" s="1">
         <v>10</v>
       </c>
@@ -1206,7 +1380,7 @@
         <v>29244</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1389,10 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" s="8" t="s">
         <v>34</v>
       </c>
@@ -1223,7 +1400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G20" s="9" t="s">
         <v>26</v>
       </c>
@@ -1234,13 +1411,13 @@
         <v>27</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G21" s="1">
         <v>10</v>
       </c>
@@ -1256,8 +1433,17 @@
       <c r="K21" s="7">
         <v>5500.48</v>
       </c>
-    </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G22" s="1">
         <v>12</v>
       </c>
@@ -1273,8 +1459,20 @@
       <c r="K22" s="7">
         <v>4850</v>
       </c>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G23" s="1">
         <v>13</v>
       </c>
@@ -1290,8 +1488,20 @@
       <c r="K23" s="7">
         <v>3585.5</v>
       </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G24" s="1">
         <v>15</v>
       </c>
@@ -1306,6 +1516,68 @@
       </c>
       <c r="K24" s="7">
         <v>1285</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/dados/Cardinalidade.xlsx
+++ b/dados/Cardinalidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheuscantarutti/Desktop/Pessoal/Udemy/cursoPyspark/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DBDFA1-04CB-7A4C-BBF2-71B006492168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1143596-C1CF-5444-B996-670321CD68C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{E9EB2AEF-B018-B441-8403-8E2C2D76AB00}"/>
   </bookViews>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A662F-E400-324C-9271-B2D7DA7211D0}">
   <dimension ref="D3:S29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
